--- a/biology/Botanique/Eucalyptus_caesia/Eucalyptus_caesia.xlsx
+++ b/biology/Botanique/Eucalyptus_caesia/Eucalyptus_caesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus caesia, le gungurru, est une espèce d'eucalyptus de la famille des Myrtaceae. Elle est de petite taille (mallee) endémique de la région centrale de la Wheatbelt où on le trouve dans les régions granitiques. Les feuilles, les bourgeons et les fruits sont recouverts d'une poussière argentée qui valent à l'arbre le nom de "Silver Princess" (Princesse d'argent).
 Son nom vernaculaire est d'origine aborigène (Noongar).
